--- a/biology/Zoologie/Gambelia_(lézard)/Gambelia_(lézard).xlsx
+++ b/biology/Zoologie/Gambelia_(lézard)/Gambelia_(lézard).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gambelia_(l%C3%A9zard)</t>
+          <t>Gambelia_(lézard)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gambelia est un genre de sauriens de la famille des Crotaphytidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gambelia est un genre de sauriens de la famille des Crotaphytidae.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gambelia_(l%C3%A9zard)</t>
+          <t>Gambelia_(lézard)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'ouest des États-Unis et dans le nord du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'ouest des États-Unis et dans le nord du Mexique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gambelia_(l%C3%A9zard)</t>
+          <t>Gambelia_(lézard)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 juillet 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 juillet 2012) :
 Gambelia copeii (Yarrow, 1882)
 Gambelia sila (Stejneger, 1890)
 Gambelia wislizenii (Baird &amp; Girard, 1852)</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gambelia_(l%C3%A9zard)</t>
+          <t>Gambelia_(lézard)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de William Gambel[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de William Gambel.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gambelia_(l%C3%A9zard)</t>
+          <t>Gambelia_(lézard)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird, 1859 : Reptiles of the boundary, with notes by the naturalists of the survey, In Report of the United States and Mexican Boundary Survey, Under the Order of Lieut. Col. W.H. Emory, Major First Cavalry, and United States Commissioner, vol. 2, no 2, Department of the Interior, Washington, D.C., p. 1-35.</t>
         </is>
